--- a/berkas/unduh/_templateRekening.xlsx
+++ b/berkas/unduh/_templateRekening.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\gsmf-monev\berkas\unduh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3A446012-1F59-4050-91D3-E8247E34BDFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06074FE6-7C47-4E46-989A-6DDA6F9A0B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_templateInfoLevel4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="154">
   <si>
     <t>NERACA</t>
   </si>
@@ -473,12 +473,21 @@
   </si>
   <si>
     <t>2321-03</t>
+  </si>
+  <si>
+    <t>posisi</t>
+  </si>
+  <si>
+    <t>AKTIVA</t>
+  </si>
+  <si>
+    <t>PASIVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1313,10 +1322,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73:H74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1328,7 +1339,7 @@
     <col min="6" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1350,8 +1361,11 @@
       <c r="G1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1373,8 +1387,11 @@
       <c r="G2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1396,8 +1413,11 @@
       <c r="G3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1419,8 +1439,11 @@
       <c r="G4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1465,8 +1491,11 @@
       <c r="G6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1488,8 +1517,11 @@
       <c r="G7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1511,8 +1543,11 @@
       <c r="G8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1534,8 +1569,11 @@
       <c r="G9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1557,8 +1595,11 @@
       <c r="G10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1580,8 +1621,11 @@
       <c r="G11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1603,8 +1647,11 @@
       <c r="G12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1626,8 +1673,11 @@
       <c r="G13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1649,8 +1699,11 @@
       <c r="G14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1672,8 +1725,11 @@
       <c r="G15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1695,8 +1751,11 @@
       <c r="G16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1718,8 +1777,11 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1741,8 +1803,11 @@
       <c r="G18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1764,8 +1829,11 @@
       <c r="G19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1787,8 +1855,11 @@
       <c r="G20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1810,8 +1881,11 @@
       <c r="G21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1833,8 +1907,11 @@
       <c r="G22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1856,8 +1933,11 @@
       <c r="G23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1879,8 +1959,11 @@
       <c r="G24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1902,8 +1985,11 @@
       <c r="G25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1925,8 +2011,11 @@
       <c r="G26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1948,8 +2037,11 @@
       <c r="G27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1971,8 +2063,11 @@
       <c r="G28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1994,8 +2089,11 @@
       <c r="G29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2017,8 +2115,11 @@
       <c r="G30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2040,8 +2141,11 @@
       <c r="G31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2063,8 +2167,11 @@
       <c r="G32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2086,8 +2193,11 @@
       <c r="G33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2109,8 +2219,11 @@
       <c r="G34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2132,8 +2245,11 @@
       <c r="G35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2155,8 +2271,11 @@
       <c r="G36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2178,8 +2297,11 @@
       <c r="G37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2201,8 +2323,11 @@
       <c r="G38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2224,8 +2349,11 @@
       <c r="G39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2247,8 +2375,11 @@
       <c r="G40" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2270,8 +2401,11 @@
       <c r="G41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2293,8 +2427,11 @@
       <c r="G42" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2316,8 +2453,11 @@
       <c r="G43" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -2339,8 +2479,11 @@
       <c r="G44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2362,8 +2505,11 @@
       <c r="G45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2385,8 +2531,11 @@
       <c r="G46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2408,8 +2557,11 @@
       <c r="G47" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -2431,8 +2583,11 @@
       <c r="G48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -2454,8 +2609,11 @@
       <c r="G49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -2477,8 +2635,11 @@
       <c r="G50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -2500,8 +2661,11 @@
       <c r="G51" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -2523,8 +2687,11 @@
       <c r="G52" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2713,11 @@
       <c r="G53" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -2569,8 +2739,11 @@
       <c r="G54" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>39</v>
       </c>
@@ -2592,8 +2765,11 @@
       <c r="G55" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2615,8 +2791,11 @@
       <c r="G56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -2638,8 +2817,11 @@
       <c r="G57" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -2661,8 +2843,11 @@
       <c r="G58" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -2684,8 +2869,11 @@
       <c r="G59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -2707,8 +2895,11 @@
       <c r="G60" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -2730,8 +2921,11 @@
       <c r="G61" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -2753,8 +2947,11 @@
       <c r="G62" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -2776,8 +2973,11 @@
       <c r="G63" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -2799,8 +2999,11 @@
       <c r="G64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2822,8 +3025,11 @@
       <c r="G65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -2845,8 +3051,11 @@
       <c r="G66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -2868,8 +3077,11 @@
       <c r="G67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -2891,8 +3103,11 @@
       <c r="G68" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -2914,8 +3129,11 @@
       <c r="G69" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -2937,8 +3155,11 @@
       <c r="G70" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -2960,8 +3181,11 @@
       <c r="G71" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -2983,8 +3207,11 @@
       <c r="G72" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -3006,8 +3233,11 @@
       <c r="G73" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -3028,6 +3258,9 @@
       </c>
       <c r="G74" t="s">
         <v>67</v>
+      </c>
+      <c r="H74" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/berkas/unduh/_templateRekening.xlsx
+++ b/berkas/unduh/_templateRekening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\gsmf-monev\berkas\unduh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06074FE6-7C47-4E46-989A-6DDA6F9A0B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62F1858-5F58-44C8-961D-B7668A9533E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="170">
   <si>
     <t>NERACA</t>
   </si>
@@ -388,9 +388,6 @@
     <t>2122-11</t>
   </si>
   <si>
-    <t>2122-12</t>
-  </si>
-  <si>
     <t>2211-01</t>
   </si>
   <si>
@@ -482,6 +479,57 @@
   </si>
   <si>
     <t>PASIVA</t>
+  </si>
+  <si>
+    <t>2123-01</t>
+  </si>
+  <si>
+    <t>GAJITUNJANGANDANUPAH</t>
+  </si>
+  <si>
+    <t>PERALATAN</t>
+  </si>
+  <si>
+    <t>1123-01</t>
+  </si>
+  <si>
+    <t>1123-02</t>
+  </si>
+  <si>
+    <t>PERALATAN KANTOR DAN SEKERTARIAT</t>
+  </si>
+  <si>
+    <t>INVENTARIS</t>
+  </si>
+  <si>
+    <t>2124-01</t>
+  </si>
+  <si>
+    <t>PERAWATANKENDARAAN</t>
+  </si>
+  <si>
+    <t>2124-02</t>
+  </si>
+  <si>
+    <t>PERAWATANTANAHDANGEDUNG</t>
+  </si>
+  <si>
+    <t>2124-03</t>
+  </si>
+  <si>
+    <t>PERAWATANPERALATAN</t>
+  </si>
+  <si>
+    <t>sdawl</t>
+  </si>
+  <si>
+    <t>mutdeb</t>
+  </si>
+  <si>
+    <t>mutkre</t>
+  </si>
+  <si>
+    <t>sdakh</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73:H74"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1339,7 +1387,7 @@
     <col min="6" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1362,686 +1410,1010 @@
         <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2049,25 +2421,37 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2075,25 +2459,37 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2101,25 +2497,37 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2127,25 +2535,37 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -2153,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -2162,16 +2582,28 @@
         <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
         <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2179,25 +2611,37 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2205,25 +2649,37 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2231,25 +2687,37 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2257,25 +2725,37 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2283,25 +2763,37 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2309,25 +2801,37 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2335,25 +2839,37 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2361,25 +2877,37 @@
         <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2387,7 +2915,7 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -2396,16 +2924,28 @@
         <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2413,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -2422,16 +2962,28 @@
         <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2439,7 +2991,7 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -2448,16 +3000,28 @@
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -2465,25 +3029,37 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2491,25 +3067,37 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2517,25 +3105,37 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2543,7 +3143,7 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
         <v>24</v>
@@ -2552,16 +3152,28 @@
         <v>26</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -2569,25 +3181,37 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -2595,25 +3219,37 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -2621,25 +3257,37 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>39</v>
       </c>
@@ -2647,623 +3295,1106 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>151</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" t="s">
+        <v>151</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>151</v>
+      </c>
+      <c r="I69">
+        <v>250000</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" t="s">
-        <v>69</v>
-      </c>
-      <c r="H59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" t="s">
-        <v>72</v>
-      </c>
-      <c r="H60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
-      <c r="H61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" t="s">
-        <v>75</v>
-      </c>
-      <c r="H63" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G64" t="s">
-        <v>65</v>
-      </c>
-      <c r="H64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G65" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" t="s">
-        <v>28</v>
-      </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G67" t="s">
-        <v>54</v>
-      </c>
-      <c r="H67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" t="s">
-        <v>25</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G68" t="s">
-        <v>55</v>
-      </c>
-      <c r="H68" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" t="s">
-        <v>26</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
         <v>45</v>
-      </c>
-      <c r="H69" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G70" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G71" t="s">
-        <v>76</v>
-      </c>
-      <c r="H71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G72" t="s">
-        <v>65</v>
       </c>
       <c r="H72" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
         <v>152</v>
       </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" t="s">
+        <v>152</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" t="s">
+        <v>152</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" t="s">
+        <v>152</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" t="s">
+        <v>152</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L79">
+    <sortCondition ref="B2:B79"/>
+    <sortCondition ref="F2:F79"/>
+    <sortCondition ref="H2:H79"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>